--- a/Data/sim_params.xlsx
+++ b/Data/sim_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irenecg/Dropbox/2. Laboral/IERMB/1_Projectes_en_curs/eu-silc_sim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54BB029-21CF-7143-9B40-99E4D081018A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D368CCA7-851C-084E-8ECF-78D62A488919}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="12300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="69">
   <si>
     <t>epa</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>contrafactic</t>
+  </si>
+  <si>
+    <t>Data/F2/baseline/ECV_2019_210407_orig.rds</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1541,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
